--- a/report/ipb_conflat_fields.xlsx
+++ b/report/ipb_conflat_fields.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11205" yWindow="-15" windowWidth="11250" windowHeight="12030"/>
+    <workbookView xWindow="75" yWindow="60" windowWidth="19635" windowHeight="12030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="mark's note" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="279">
   <si>
     <t>Date &amp; Time</t>
   </si>
@@ -702,9 +701,6 @@
     <t>Flowrate in standard liter per minute of Argon entering Jacket cooling loop to make up gas lost to leaks</t>
   </si>
   <si>
-    <t>Totalized (integrated / summed) Argon passed through valve VA8, the jacket argon gas makeup valve</t>
-  </si>
-  <si>
     <t>Flowrate in Standard Liter/minute of Argon in the jacket gas loop</t>
   </si>
   <si>
@@ -727,9 +723,6 @@
   </si>
   <si>
     <t>sum of all heater powers (all outputs of Chroma 61702) and Q power measured at Pi filter</t>
-  </si>
-  <si>
-    <t>Sum of Jacket Thermal Power and Termination Thermal Power</t>
   </si>
   <si>
     <t>Pressure in PSI measured by the electronic backpressure regulator</t>
@@ -862,12 +855,54 @@
   <si>
     <t>(Vrms1 - Vrms2)* Vrms2 / Rterm</t>
   </si>
+  <si>
+    <t>Sum of Jacket Thermal Power and Termination Thermal Power/Totalized (integrated / summed) Argon passed through valve VA8, the jacket argon gas makeup valve</t>
+  </si>
+  <si>
+    <t>this is the code I just wrote for HHT calorimetry. It's pretty simple, hopefully this is self-explanatory. Water heat capacity is assumed fixed at 4185.5 J/(kg*degC) and a density of 1 kg/liter. If this is ok with you all, I will roll it out in next update.</t>
+  </si>
+  <si>
+    <t>//Water calorimetry.  Water heat capacity at 15C is 4185.5 J/(kg*degC)</t>
+  </si>
+  <si>
+    <t>//69.7583333 W/degC = 1 Liter/ minute * minute/(60 sec) * 1 kg/liter *4185.5 J/(kg*degC)</t>
+  </si>
+  <si>
+    <t>TermPower = 69.7583333*Term_LPM*(Term_Tout - Term_Tin) ; </t>
+  </si>
+  <si>
+    <t>JacketPower =  69.7583333*Jacket_LPM*(Jacket_HX_Tout-Jacket_HX_Tin);</t>
+  </si>
+  <si>
+    <t>// get water flow rate in kilograms per second. 1 Liter/minute * 1 kg/liter * 1 minute/(60 sec)</t>
+  </si>
+  <si>
+    <t>MassFlow_term= Term_LPM/60; </t>
+  </si>
+  <si>
+    <t>MassFlow_jacket= Jacket_LPM/60;</t>
+  </si>
+  <si>
+    <t>//Sum up all the electrical inputs. The 3 phase powers from the Chroma 61702, and Q power from the Pi filter </t>
+  </si>
+  <si>
+    <t>Power_in= Core_Htr_Pwr + Bias_V_Pwr + Jckt_Htr_Pwr + Q_pwr ;</t>
+  </si>
+  <si>
+    <t>//Power out is what comes out of the termination heat exchanger and the Jacket Argon to Water HeatXchanger</t>
+  </si>
+  <si>
+    <t>Power_out = TermPower + JacketPower ;</t>
+  </si>
+  <si>
+    <t>Excess_Power = Power_out - Power_in;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,6 +1083,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1414,7 +1455,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1440,11 +1481,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1789,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1801,7 +1847,7 @@
     <col min="4" max="4" width="92.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="124.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
@@ -1820,7 +1866,7 @@
         <v>42620.896516203706</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -1829,7 +1875,7 @@
         <v>42618.37568287037</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1888,7 +1934,7 @@
       <c r="F5" s="12">
         <v>184.229477</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1908,7 +1954,7 @@
       <c r="F6" s="12">
         <v>31.776959999999999</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1942,8 +1988,8 @@
       <c r="C8" s="14">
         <v>-10.025817</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>265</v>
+      <c r="D8" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>69</v>
@@ -1960,13 +2006,13 @@
         <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="11">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>70</v>
@@ -1998,7 +2044,7 @@
         <v>25.824863000000001</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2018,7 +2064,7 @@
         <v>26.845502</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2040,8 +2086,8 @@
       <c r="F12" s="12">
         <v>25.671567</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>234</v>
+      <c r="G12" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2060,8 +2106,8 @@
       <c r="F13" s="12">
         <v>26.139913</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>235</v>
+      <c r="G13" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2100,8 +2146,8 @@
       <c r="F15" s="12">
         <v>2.0009999999999999</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>229</v>
+      <c r="G15" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2155,7 +2201,7 @@
         <v>9.3958639999999995</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>79</v>
@@ -2257,7 +2303,7 @@
         <v>1.159E-2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>83</v>
@@ -2277,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>84</v>
@@ -2293,6 +2339,7 @@
       <c r="C25" s="11">
         <v>1</v>
       </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="1" t="s">
         <v>85</v>
       </c>
@@ -2334,7 +2381,7 @@
         <v>0.217783</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2351,7 +2398,7 @@
         <v>0.34384999999999999</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2361,6 +2408,9 @@
       <c r="C29" s="15">
         <v>3.3978280000000001</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="E29" s="10" t="s">
         <v>89</v>
       </c>
@@ -2396,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>91</v>
@@ -2416,7 +2466,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>92</v>
@@ -2453,7 +2503,7 @@
         <v>298.88572399999998</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>94</v>
@@ -2483,7 +2533,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C36" s="15">
@@ -2506,6 +2556,9 @@
       <c r="C37" s="14">
         <v>300.00639999999999</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>97</v>
       </c>
@@ -2592,7 +2645,7 @@
         <v>-0.25892199999999999</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>102</v>
@@ -2605,7 +2658,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="14">
@@ -2838,7 +2891,7 @@
         <v>25.199653999999999</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
@@ -2855,7 +2908,7 @@
         <v>74.693575999999993</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
@@ -2865,18 +2918,16 @@
       <c r="C58" s="11">
         <v>1</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="22">
         <v>31.596665000000002</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>228</v>
-      </c>
+      <c r="G58" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
@@ -2899,7 +2950,7 @@
       <c r="C60" s="11">
         <v>0</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="19" t="s">
         <v>119</v>
       </c>
       <c r="F60" s="1">
@@ -2937,7 +2988,7 @@
         <v>99.99</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
@@ -2954,7 +3005,7 @@
         <v>88.954780999999997</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
@@ -2971,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -2988,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
@@ -3005,12 +3056,12 @@
         <v>100</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C67" s="11">
         <v>2</v>
@@ -3097,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
@@ -3108,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
@@ -3119,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
@@ -3130,7 +3181,7 @@
         <v>0.16891999999999999</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
@@ -3141,18 +3192,18 @@
         <v>32.711688000000002</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F79" s="12">
         <v>126.28878400000001</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -3163,10 +3214,10 @@
         <v>24.481468</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="5:8" ht="13.5" x14ac:dyDescent="0.2">
@@ -3177,7 +3228,7 @@
         <v>240</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="5:8" ht="13.5" x14ac:dyDescent="0.2">
@@ -3188,7 +3239,7 @@
         <v>60</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="5:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -3199,7 +3250,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.2">
@@ -3210,7 +3261,7 @@
         <v>99.995688000000001</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.2">
@@ -3221,7 +3272,7 @@
         <v>100.062482</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.2">
@@ -3229,7 +3280,7 @@
         <v>135</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.2">
@@ -3240,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.2">
@@ -3358,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="5:7" x14ac:dyDescent="0.2">
@@ -3377,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="5:7" x14ac:dyDescent="0.2">
@@ -3396,831 +3447,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B101"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19">
-        <v>42624.380856481483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3">
-        <v>100.050926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4">
-        <v>27.447309000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5">
-        <v>49.515205000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6">
-        <v>25.185209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7">
-        <v>25.98115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8">
-        <v>25.325001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>24.677612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10">
-        <v>25.743725000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11">
-        <v>25.807701000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12">
-        <v>25.766380999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13">
-        <v>25.806630999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="20">
-        <v>99.161914999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21">
-        <v>98.067480000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22">
-        <v>98.067480000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23">
-        <v>8.5785979999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24">
-        <v>8.4276149999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25">
-        <v>99.134208000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26">
-        <v>58.229990999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27">
-        <v>0.22042600000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28">
-        <v>0.44478499999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37">
-        <v>6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38">
-        <v>59.099997999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39">
-        <v>-5.9500000000000004E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40">
-        <v>5.6899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41">
-        <v>0.44900000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42">
-        <v>9.2899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43">
-        <v>2.58E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45">
-        <v>1.248E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46">
-        <v>1.89E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47">
-        <v>2.35E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52">
-        <v>5.5300000000000002E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56">
-        <v>24.891994</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57">
-        <v>9.5039090000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58">
-        <v>2.6466729999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59">
-        <v>78181.713736000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>122</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71">
-        <v>38.22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77">
-        <v>-7.9699999999999997E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78">
-        <v>3.9100000000000003E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79">
-        <v>-5.2445110000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="20">
-        <v>2.0088599999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>132</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84">
-        <v>99.995688000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85">
-        <v>100.025229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>135</v>
-      </c>
-      <c r="B86" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>140</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>141</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>142</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>144</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>145</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>146</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>147</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>63</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
+    <row r="1" spans="1:1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+    </row>
+    <row r="3" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+    </row>
+    <row r="6" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+    </row>
+    <row r="10" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+    </row>
+    <row r="12" spans="1:1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+    </row>
+    <row r="16" spans="1:1" ht="153" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+    </row>
+    <row r="21" spans="1:1" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+    </row>
+    <row r="23" spans="1:1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/report/ipb_conflat_fields.xlsx
+++ b/report/ipb_conflat_fields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12900" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12900" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="conflat" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="330">
   <si>
     <t>Date &amp; Time</t>
   </si>
@@ -770,48 +770,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">DT = TERMINATIONXCH2OOUT - TERMINATIONXCH2OIN; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF228B22"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>%C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tflow = TerminationHXWaterLPM; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF228B22"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>%L/min = (1000/60) cc/sec = 0.0167 g/sec</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TTP = 4.184 * (Tflow*(1000/60) .* DT); </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF228B22"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>%J/sec</t>
-    </r>
-  </si>
-  <si>
     <t>Temperature in degrees C of water entering termination heatsink. RTD0</t>
   </si>
   <si>
@@ -1047,13 +1005,25 @@
   </si>
   <si>
     <t>Step number of the current sequence being number</t>
+  </si>
+  <si>
+    <t>Step Stability Time</t>
+  </si>
+  <si>
+    <t>Core Q V3 rms</t>
+  </si>
+  <si>
+    <t>Oscilloscope Comm Status</t>
+  </si>
+  <si>
+    <t>Valves State</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,12 +1161,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF228B22"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -1209,13 +1173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1239,6 +1196,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1600,39 +1564,30 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="22" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1975,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1987,182 +1942,265 @@
     <col min="2" max="2" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="124.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>42618.37568287037</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>B2</f>
+        <v>Date &amp; Time</v>
+      </c>
+      <c r="F2" s="4">
+        <v>42838.312650462962</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>42843.140448888887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>327.197205</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>47.908034999999998</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>184.229477</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>31.776959999999999</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>51.866222</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>25.548805000000002</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>24.197327000000001</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>25.824863000000001</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>26.845502</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>25.671567</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>26.139913</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="1">
@@ -2171,50 +2209,74 @@
       <c r="D14" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>2.0009999999999999</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="7">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>2.9950000000000001E-2</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>162</v>
       </c>
@@ -2227,8 +2289,14 @@
       <c r="D18" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -2241,115 +2309,175 @@
       <c r="D19" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="7">
         <v>101.712217</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>100.10247</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <v>100.10247</v>
       </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <v>8.5228000000000002</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <v>8.5523399999999992</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <v>100.70968499999999</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="7">
         <v>59.480525</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <v>0.217783</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
         <v>0.34384999999999999</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="10" t="s">
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="1">
@@ -2358,9 +2486,15 @@
       <c r="D29" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
+      <c r="E29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C30" s="1">
@@ -2369,9 +2503,15 @@
       <c r="D30" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="10" t="s">
+      <c r="E30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C31" s="1">
@@ -2380,9 +2520,15 @@
       <c r="D31" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
+      <c r="E31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C32" s="1">
@@ -2391,9 +2537,15 @@
       <c r="D32" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="E32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="1">
@@ -2402,9 +2554,15 @@
       <c r="D33" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
+      <c r="E33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="1">
@@ -2413,9 +2571,15 @@
       <c r="D34" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="10" t="s">
+      <c r="E34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C35" s="1">
@@ -2424,9 +2588,15 @@
       <c r="D35" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
+      <c r="E35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="1">
@@ -2435,96 +2605,150 @@
       <c r="D36" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="7">
         <v>6.3100000000000003E-2</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="7">
         <v>65.699996999999996</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="7">
         <v>6.59E-2</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="7">
         <v>2.2400000000000002</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="7">
         <v>0.437</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="7">
         <v>1.83E-2</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="7">
         <v>0.85399999999999998</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>102</v>
       </c>
@@ -2534,8 +2758,14 @@
       <c r="D45" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>103</v>
       </c>
@@ -2545,8 +2775,14 @@
       <c r="D46" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>104</v>
       </c>
@@ -2556,8 +2792,14 @@
       <c r="D47" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>105</v>
       </c>
@@ -2567,8 +2809,14 @@
       <c r="D48" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>106</v>
       </c>
@@ -2578,9 +2826,14 @@
       <c r="D49" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>107</v>
       </c>
@@ -2590,9 +2843,14 @@
       <c r="D50" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>108</v>
       </c>
@@ -2602,8 +2860,14 @@
       <c r="D51" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>109</v>
       </c>
@@ -2613,8 +2877,14 @@
       <c r="D52" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>110</v>
       </c>
@@ -2624,8 +2894,14 @@
       <c r="D53" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>111</v>
       </c>
@@ -2635,59 +2911,95 @@
       <c r="D54" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="9" t="s">
+      <c r="E54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="7">
         <v>25.199653999999999</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="7">
         <v>74.693575999999993</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
+      <c r="E57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="9">
         <v>31.596665000000002</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="7">
         <v>78136.689297000004</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="12" t="s">
+      <c r="E59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="1">
@@ -2696,16 +3008,28 @@
       <c r="D60" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E60" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>30</v>
       </c>
@@ -2715,19 +3039,31 @@
       <c r="D62" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="7">
         <v>88.954780999999997</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2737,8 +3073,14 @@
       <c r="D64" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>25</v>
       </c>
@@ -2748,8 +3090,14 @@
       <c r="D65" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>26</v>
       </c>
@@ -2759,9 +3107,15 @@
       <c r="D66" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
+      <c r="E66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C67" s="1">
@@ -2770,32 +3124,47 @@
       <c r="D67" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
+      <c r="E67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="9" t="s">
+      <c r="E68" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="9" t="s">
+      <c r="E69" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>122</v>
       </c>
@@ -2805,8 +3174,11 @@
       <c r="D71" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>123</v>
       </c>
@@ -2816,9 +3188,12 @@
       <c r="D72" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
+      <c r="E72" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C73" s="1">
@@ -2827,8 +3202,11 @@
       <c r="D73" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>124</v>
       </c>
@@ -2838,8 +3216,11 @@
       <c r="D74" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>125</v>
       </c>
@@ -2849,8 +3230,11 @@
       <c r="D75" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>117</v>
       </c>
@@ -2860,107 +3244,125 @@
       <c r="D76" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="7">
         <v>0.16891999999999999</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="7">
         <v>32.711688000000002</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="7">
         <v>126.28878400000001</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="7">
         <v>24.481468</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="E80" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C81" s="1">
         <v>240</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="E81" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C82" s="1">
         <v>60</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C83" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>249</v>
+      <c r="E83" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="7">
         <v>99.995688000000001</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>234</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="7">
         <v>100.062482</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>233</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -2968,7 +3370,10 @@
         <v>132</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
@@ -2981,6 +3386,9 @@
       <c r="D87" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="E87" s="16" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
@@ -2992,6 +3400,9 @@
       <c r="D88" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="E88" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
@@ -3003,6 +3414,9 @@
       <c r="D89" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="E89" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
@@ -3014,6 +3428,9 @@
       <c r="D90" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="E90" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
@@ -3025,6 +3442,9 @@
       <c r="D91" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="E91" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
@@ -3036,6 +3456,9 @@
       <c r="D92" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="E92" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
@@ -3047,6 +3470,9 @@
       <c r="D93" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="E93" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
@@ -3058,13 +3484,19 @@
       <c r="D94" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="E94" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
@@ -3077,8 +3509,11 @@
       <c r="D96" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>142</v>
       </c>
@@ -3088,8 +3523,11 @@
       <c r="D97" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>143</v>
       </c>
@@ -3099,16 +3537,22 @@
       <c r="D98" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>145</v>
       </c>
@@ -3116,15 +3560,31 @@
         <v>0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E102" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E103" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3137,7 +3597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3147,101 +3607,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+    </row>
+    <row r="3" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="7" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-    </row>
-    <row r="16" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-    </row>
-    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3253,515 +3713,515 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="30.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="17" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="18" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="17" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="17" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="18" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="18" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="17" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="17" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="17" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="18" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="17" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="18" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="17" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="18" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="17" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="17" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="17" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="17" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="17" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="17" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="17" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="17" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="18" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="17" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="17" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="17" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="17" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="17" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="17" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="17" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="17" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="17" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="18" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="18" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="18" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="18" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="18" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="12" t="s">
         <v>60</v>
       </c>
     </row>

--- a/report/ipb_conflat_fields.xlsx
+++ b/report/ipb_conflat_fields.xlsx
@@ -1564,7 +1564,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1588,6 +1588,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1932,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1989,7 +1991,7 @@
       <c r="D3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -3008,7 +3010,7 @@
       <c r="D60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="17" t="s">
         <v>116</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -3107,7 +3109,7 @@
       <c r="D66" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="12" t="s">
